--- a/biology/Botanique/Apioideae/Apioideae.xlsx
+++ b/biology/Botanique/Apioideae/Apioideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Apioideae sont une sous-famille de plantes à fleurs de la famille des Apiaceae. C'est la plus grande de la famille, comprenant plus de 400 genres et plus de 3 000 espèces selon Catalogue of Life                                   (20 mai 2021)[1]. Apium est le genre type.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Apioideae sont une sous-famille de plantes à fleurs de la famille des Apiaceae. C'est la plus grande de la famille, comprenant plus de 400 genres et plus de 3 000 espèces selon Catalogue of Life                                   (20 mai 2021). Apium est le genre type.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Apioideae est décrite en 1866 par le botaniste allemand Berthold Carl Seemann[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Apioideae est décrite en 1866 par le botaniste allemand Berthold Carl Seemann.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Tribus et sous-tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-famille des Apioideae comprend les tribus et sous-tribus suivantes selon GRIN            (20 mai 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-famille des Apioideae comprend les tribus et sous-tribus suivantes selon GRIN            (20 mai 2021) :
 Aciphylleae
 Annesorhizeae
 Apieae
